--- a/doc/단상 HMI 통신_4_2inch_수정.xlsx
+++ b/doc/단상 HMI 통신_4_2inch_수정.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DevWork\4.IFTechWork\1.UPS1P1P\Display4.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DevWork\4.IFTechWork\1.UPS1P1P\Display4.3\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3378E58A-6D7B-4DC1-A724-A5590670D905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50F3260-6921-45D5-8173-B185203A0B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2177,7 +2177,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2208,6 +2208,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="29">
     <border>
@@ -2581,7 +2587,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2830,6 +2836,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2848,52 +2899,19 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3202,8 +3220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56:J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3235,10 +3253,10 @@
       <c r="B2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="96"/>
+      <c r="D2" s="89"/>
       <c r="E2" s="36" t="s">
         <v>34</v>
       </c>
@@ -3267,11 +3285,11 @@
     </row>
     <row r="3" spans="2:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="32"/>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="90" t="s">
         <v>176</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="98"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="91"/>
       <c r="F3" s="59"/>
       <c r="G3" s="40"/>
       <c r="H3" s="42"/>
@@ -3395,11 +3413,11 @@
     </row>
     <row r="9" spans="2:13" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B9" s="23"/>
-      <c r="C9" s="99" t="s">
+      <c r="C9" s="92" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="100"/>
-      <c r="E9" s="101"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="94"/>
       <c r="F9" s="59"/>
       <c r="G9" s="42"/>
       <c r="H9" s="42"/>
@@ -3409,7 +3427,7 @@
       <c r="M9" s="66"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="92">
+      <c r="B10" s="84">
         <v>6</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -3436,7 +3454,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="93"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="8">
         <v>6.1</v>
       </c>
@@ -3461,7 +3479,7 @@
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="93"/>
+      <c r="B12" s="85"/>
       <c r="C12" s="8">
         <v>6.2</v>
       </c>
@@ -3484,7 +3502,7 @@
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="94"/>
+      <c r="B13" s="86"/>
       <c r="C13" s="8"/>
       <c r="D13" s="21"/>
       <c r="E13" s="37"/>
@@ -3509,11 +3527,11 @@
     </row>
     <row r="15" spans="2:13" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="23"/>
-      <c r="C15" s="99" t="s">
+      <c r="C15" s="92" t="s">
         <v>182</v>
       </c>
-      <c r="D15" s="100"/>
-      <c r="E15" s="102"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="95"/>
       <c r="I15" s="3"/>
       <c r="L15" s="66"/>
       <c r="M15" s="66"/>
@@ -3648,11 +3666,11 @@
     </row>
     <row r="22" spans="2:13" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B22" s="29"/>
-      <c r="C22" s="103" t="s">
+      <c r="C22" s="96" t="s">
         <v>194</v>
       </c>
-      <c r="D22" s="104"/>
-      <c r="E22" s="105"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="98"/>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
@@ -3673,7 +3691,7 @@
       <c r="M23" s="66"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="90">
+      <c r="B24" s="87">
         <v>15</v>
       </c>
       <c r="C24" s="15" t="s">
@@ -3700,7 +3718,7 @@
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="90"/>
+      <c r="B25" s="87"/>
       <c r="C25" s="15" t="s">
         <v>160</v>
       </c>
@@ -3725,7 +3743,7 @@
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="90"/>
+      <c r="B26" s="87"/>
       <c r="C26" s="15" t="s">
         <v>161</v>
       </c>
@@ -3750,7 +3768,7 @@
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="90"/>
+      <c r="B27" s="87"/>
       <c r="C27" s="15" t="s">
         <v>162</v>
       </c>
@@ -3775,7 +3793,7 @@
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="90"/>
+      <c r="B28" s="87"/>
       <c r="C28" s="15" t="s">
         <v>163</v>
       </c>
@@ -3800,7 +3818,7 @@
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B29" s="90"/>
+      <c r="B29" s="87"/>
       <c r="C29" s="15" t="s">
         <v>164</v>
       </c>
@@ -3825,7 +3843,7 @@
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="90"/>
+      <c r="B30" s="87"/>
       <c r="C30" s="15" t="s">
         <v>165</v>
       </c>
@@ -3850,7 +3868,7 @@
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="90"/>
+      <c r="B31" s="87"/>
       <c r="C31" s="15" t="s">
         <v>166</v>
       </c>
@@ -3875,7 +3893,7 @@
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B32" s="90"/>
+      <c r="B32" s="87"/>
       <c r="C32" s="15" t="s">
         <v>167</v>
       </c>
@@ -3900,7 +3918,7 @@
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B33" s="90"/>
+      <c r="B33" s="87"/>
       <c r="C33" s="15" t="s">
         <v>168</v>
       </c>
@@ -3925,7 +3943,7 @@
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B34" s="90"/>
+      <c r="B34" s="87"/>
       <c r="C34" s="15" t="s">
         <v>169</v>
       </c>
@@ -3950,7 +3968,7 @@
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B35" s="90"/>
+      <c r="B35" s="87"/>
       <c r="C35" s="15" t="s">
         <v>170</v>
       </c>
@@ -3975,7 +3993,7 @@
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B36" s="90"/>
+      <c r="B36" s="87"/>
       <c r="C36" s="15" t="s">
         <v>171</v>
       </c>
@@ -4000,7 +4018,7 @@
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B37" s="90"/>
+      <c r="B37" s="87"/>
       <c r="C37" s="15" t="s">
         <v>172</v>
       </c>
@@ -4025,7 +4043,7 @@
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B38" s="90"/>
+      <c r="B38" s="87"/>
       <c r="C38" s="15" t="s">
         <v>173</v>
       </c>
@@ -4050,7 +4068,7 @@
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B39" s="91"/>
+      <c r="B39" s="105"/>
       <c r="C39" s="15" t="s">
         <v>174</v>
       </c>
@@ -4086,7 +4104,7 @@
       <c r="M40" s="66"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="92">
+      <c r="B41" s="84">
         <v>16</v>
       </c>
       <c r="C41" s="54" t="s">
@@ -4117,7 +4135,7 @@
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B42" s="90"/>
+      <c r="B42" s="87"/>
       <c r="C42" s="54" t="s">
         <v>144</v>
       </c>
@@ -4146,7 +4164,7 @@
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B43" s="90"/>
+      <c r="B43" s="87"/>
       <c r="C43" s="54" t="s">
         <v>145</v>
       </c>
@@ -4175,7 +4193,7 @@
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B44" s="90"/>
+      <c r="B44" s="87"/>
       <c r="C44" s="55" t="s">
         <v>146</v>
       </c>
@@ -4185,7 +4203,7 @@
       <c r="E44" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="F44" s="84" t="s">
+      <c r="F44" s="99" t="s">
         <v>188</v>
       </c>
       <c r="G44" s="51"/>
@@ -4196,7 +4214,7 @@
       <c r="M44" s="66"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B45" s="90"/>
+      <c r="B45" s="87"/>
       <c r="C45" s="55" t="s">
         <v>147</v>
       </c>
@@ -4206,7 +4224,7 @@
       <c r="E45" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="84"/>
+      <c r="F45" s="99"/>
       <c r="G45" s="51"/>
       <c r="H45" s="51"/>
       <c r="I45" s="51"/>
@@ -4215,7 +4233,7 @@
       <c r="M45" s="66"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B46" s="90"/>
+      <c r="B46" s="87"/>
       <c r="C46" s="54" t="s">
         <v>148</v>
       </c>
@@ -4244,7 +4262,7 @@
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B47" s="90"/>
+      <c r="B47" s="87"/>
       <c r="C47" s="54" t="s">
         <v>149</v>
       </c>
@@ -4273,7 +4291,7 @@
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B48" s="90"/>
+      <c r="B48" s="87"/>
       <c r="C48" s="54" t="s">
         <v>150</v>
       </c>
@@ -4302,7 +4320,7 @@
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B49" s="90"/>
+      <c r="B49" s="87"/>
       <c r="C49" s="54" t="s">
         <v>151</v>
       </c>
@@ -4331,7 +4349,7 @@
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B50" s="90"/>
+      <c r="B50" s="87"/>
       <c r="C50" s="55" t="s">
         <v>152</v>
       </c>
@@ -4350,7 +4368,7 @@
       <c r="M50" s="66"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B51" s="90"/>
+      <c r="B51" s="87"/>
       <c r="C51" s="54" t="s">
         <v>153</v>
       </c>
@@ -4379,7 +4397,7 @@
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B52" s="90"/>
+      <c r="B52" s="87"/>
       <c r="C52" s="54" t="s">
         <v>154</v>
       </c>
@@ -4408,7 +4426,7 @@
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B53" s="93"/>
+      <c r="B53" s="85"/>
       <c r="C53" s="55" t="s">
         <v>155</v>
       </c>
@@ -4429,7 +4447,7 @@
       <c r="M53" s="66"/>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B54" s="93"/>
+      <c r="B54" s="85"/>
       <c r="C54" s="54" t="s">
         <v>156</v>
       </c>
@@ -4456,7 +4474,7 @@
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B55" s="93"/>
+      <c r="B55" s="85"/>
       <c r="C55" s="54" t="s">
         <v>157</v>
       </c>
@@ -4485,23 +4503,23 @@
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B56" s="94"/>
-      <c r="C56" s="54" t="s">
+      <c r="B56" s="86"/>
+      <c r="C56" s="106" t="s">
         <v>158</v>
       </c>
-      <c r="D56" s="21" t="s">
+      <c r="D56" s="107" t="s">
         <v>569</v>
       </c>
-      <c r="E56" s="21" t="s">
+      <c r="E56" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="F56" s="59"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="J56" s="42" t="s">
+      <c r="F56" s="108"/>
+      <c r="G56" s="109"/>
+      <c r="H56" s="109"/>
+      <c r="I56" s="109" t="s">
+        <v>180</v>
+      </c>
+      <c r="J56" s="109" t="s">
         <v>180</v>
       </c>
       <c r="L56" s="66"/>
@@ -4523,7 +4541,7 @@
       <c r="M57" s="66"/>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B58" s="92">
+      <c r="B58" s="84">
         <v>17</v>
       </c>
       <c r="C58" s="16" t="s">
@@ -4554,7 +4572,7 @@
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B59" s="93"/>
+      <c r="B59" s="85"/>
       <c r="C59" s="16" t="s">
         <v>129</v>
       </c>
@@ -4583,7 +4601,7 @@
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B60" s="93"/>
+      <c r="B60" s="85"/>
       <c r="C60" s="16" t="s">
         <v>130</v>
       </c>
@@ -4612,7 +4630,7 @@
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B61" s="93"/>
+      <c r="B61" s="85"/>
       <c r="C61" s="16" t="s">
         <v>131</v>
       </c>
@@ -4641,7 +4659,7 @@
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B62" s="93"/>
+      <c r="B62" s="85"/>
       <c r="C62" s="16" t="s">
         <v>132</v>
       </c>
@@ -4670,7 +4688,7 @@
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B63" s="93"/>
+      <c r="B63" s="85"/>
       <c r="C63" s="16" t="s">
         <v>133</v>
       </c>
@@ -4699,7 +4717,7 @@
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B64" s="93"/>
+      <c r="B64" s="85"/>
       <c r="C64" s="16" t="s">
         <v>134</v>
       </c>
@@ -4726,7 +4744,7 @@
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B65" s="93"/>
+      <c r="B65" s="85"/>
       <c r="C65" s="16" t="s">
         <v>570</v>
       </c>
@@ -4755,7 +4773,7 @@
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B66" s="93"/>
+      <c r="B66" s="85"/>
       <c r="C66" s="16" t="s">
         <v>135</v>
       </c>
@@ -4784,7 +4802,7 @@
       </c>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B67" s="93"/>
+      <c r="B67" s="85"/>
       <c r="C67" s="16" t="s">
         <v>136</v>
       </c>
@@ -4813,7 +4831,7 @@
       </c>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B68" s="93"/>
+      <c r="B68" s="85"/>
       <c r="C68" s="16" t="s">
         <v>137</v>
       </c>
@@ -4842,7 +4860,7 @@
       </c>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B69" s="93"/>
+      <c r="B69" s="85"/>
       <c r="C69" s="16" t="s">
         <v>138</v>
       </c>
@@ -4871,7 +4889,7 @@
       </c>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B70" s="93"/>
+      <c r="B70" s="85"/>
       <c r="C70" s="16" t="s">
         <v>139</v>
       </c>
@@ -4898,7 +4916,7 @@
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B71" s="93"/>
+      <c r="B71" s="85"/>
       <c r="C71" s="16" t="s">
         <v>140</v>
       </c>
@@ -4927,7 +4945,7 @@
       </c>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B72" s="93"/>
+      <c r="B72" s="85"/>
       <c r="C72" s="16" t="s">
         <v>141</v>
       </c>
@@ -4954,7 +4972,7 @@
       </c>
     </row>
     <row r="73" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="95"/>
+      <c r="B73" s="88"/>
       <c r="C73" s="16" t="s">
         <v>142</v>
       </c>
@@ -4981,11 +4999,11 @@
     </row>
     <row r="75" spans="2:13" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B75" s="23"/>
-      <c r="C75" s="85" t="s">
+      <c r="C75" s="100" t="s">
         <v>185</v>
       </c>
-      <c r="D75" s="85"/>
-      <c r="E75" s="86"/>
+      <c r="D75" s="100"/>
+      <c r="E75" s="101"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B76" s="4">
@@ -5400,11 +5418,11 @@
     </row>
     <row r="92" spans="2:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B92" s="23"/>
-      <c r="C92" s="87" t="s">
+      <c r="C92" s="102" t="s">
         <v>183</v>
       </c>
-      <c r="D92" s="88"/>
-      <c r="E92" s="89"/>
+      <c r="D92" s="103"/>
+      <c r="E92" s="104"/>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B93" s="1">
@@ -5672,11 +5690,11 @@
     </row>
     <row r="104" spans="2:13" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B104" s="23"/>
-      <c r="C104" s="85" t="s">
+      <c r="C104" s="100" t="s">
         <v>184</v>
       </c>
-      <c r="D104" s="85"/>
-      <c r="E104" s="86"/>
+      <c r="D104" s="100"/>
+      <c r="E104" s="101"/>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B105" s="4">
@@ -5908,6 +5926,11 @@
     <row r="114" spans="2:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="B24:B39"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B41:B56"/>
     <mergeCell ref="B58:B73"/>
@@ -5916,11 +5939,6 @@
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="B24:B39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/단상 HMI 통신_4_2inch_수정.xlsx
+++ b/doc/단상 HMI 통신_4_2inch_수정.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DevWork\4.IFTechWork\1.UPS1P1P\Display4.3\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50F3260-6921-45D5-8173-B185203A0B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5027459F-A23F-43BC-8025-F74B93C42850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="573">
   <si>
     <t>input_current_rms</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2046,6 +2046,14 @@
   </si>
   <si>
     <t>17.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Bat_FirstUV                일차저전압경보    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이것으로 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2053,7 +2061,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2176,6 +2184,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2183,12 +2198,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2211,6 +2220,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2587,7 +2602,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2627,10 +2642,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2657,7 +2672,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2669,250 +2684,256 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3220,8 +3241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56:J56"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3230,14 +3251,14 @@
     <col min="2" max="3" width="8.75" style="26"/>
     <col min="4" max="4" width="44.25" style="26" customWidth="1"/>
     <col min="5" max="5" width="28.625" style="26" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="58" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="56" customWidth="1"/>
     <col min="7" max="7" width="6.875" style="3" customWidth="1"/>
     <col min="8" max="8" width="6.75" style="3" customWidth="1"/>
     <col min="9" max="9" width="5.875" customWidth="1"/>
     <col min="10" max="10" width="6.25" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="33" style="67" customWidth="1"/>
-    <col min="13" max="13" width="32.25" style="67" customWidth="1"/>
+    <col min="12" max="12" width="33" style="65" customWidth="1"/>
+    <col min="13" max="13" width="32.25" style="65" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" s="3" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3245,7 +3266,7 @@
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
-      <c r="F1" s="58"/>
+      <c r="F1" s="56"/>
       <c r="L1" s="18"/>
       <c r="M1" s="18"/>
     </row>
@@ -3253,50 +3274,50 @@
       <c r="B2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="36" t="s">
+      <c r="D2" s="98"/>
+      <c r="E2" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="73" t="s">
+      <c r="F2" s="39"/>
+      <c r="G2" s="71" t="s">
         <v>309</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="40" t="s">
         <v>352</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="K2" s="53" t="s">
+      <c r="K2" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="39" t="s">
         <v>305</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="M2" s="39" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="32"/>
-      <c r="C3" s="90" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="99" t="s">
         <v>176</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
@@ -3308,20 +3329,20 @@
       <c r="D4" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="59"/>
-      <c r="G4" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="L4" s="66" t="s">
+      <c r="F4" s="57"/>
+      <c r="G4" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="L4" s="64" t="s">
         <v>323</v>
       </c>
-      <c r="M4" s="66" t="s">
+      <c r="M4" s="64" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3335,47 +3356,47 @@
       <c r="D5" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="59"/>
-      <c r="G5" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="L5" s="66" t="s">
+      <c r="F5" s="57"/>
+      <c r="G5" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="L5" s="64" t="s">
         <v>244</v>
       </c>
-      <c r="M5" s="66" t="s">
+      <c r="M5" s="64" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="30">
+      <c r="B6" s="29">
         <v>2</v>
       </c>
       <c r="C6" s="9">
         <v>2</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="L6" s="66" t="s">
+      <c r="F6" s="57"/>
+      <c r="G6" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="L6" s="64" t="s">
         <v>243</v>
       </c>
-      <c r="M6" s="66" t="s">
+      <c r="M6" s="64" t="s">
         <v>325</v>
       </c>
     </row>
@@ -3386,21 +3407,21 @@
       <c r="C7" s="5">
         <v>3</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="59"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="L7" s="66" t="s">
+      <c r="F7" s="57"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="L7" s="64" t="s">
         <v>341</v>
       </c>
-      <c r="M7" s="66" t="s">
+      <c r="M7" s="64" t="s">
         <v>324</v>
       </c>
     </row>
@@ -3413,21 +3434,21 @@
     </row>
     <row r="9" spans="2:13" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B9" s="23"/>
-      <c r="C9" s="92" t="s">
+      <c r="C9" s="101" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="93"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="84">
+      <c r="B10" s="94">
         <v>6</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -3436,83 +3457,83 @@
       <c r="D10" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="F10" s="59"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42">
+      <c r="F10" s="57"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41">
         <v>0</v>
       </c>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="L10" s="66" t="s">
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="L10" s="64" t="s">
         <v>423</v>
       </c>
-      <c r="M10" s="66" t="s">
+      <c r="M10" s="64" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="85"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="8">
         <v>6.1</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="F11" s="59"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42">
+      <c r="F11" s="57"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41">
         <v>0</v>
       </c>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="L11" s="66" t="s">
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="L11" s="64" t="s">
         <v>424</v>
       </c>
-      <c r="M11" s="66" t="s">
+      <c r="M11" s="64" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="85"/>
+      <c r="B12" s="95"/>
       <c r="C12" s="8">
         <v>6.2</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42">
+      <c r="E12" s="36"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41">
         <v>0</v>
       </c>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="L12" s="66" t="s">
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="L12" s="64" t="s">
         <v>307</v>
       </c>
-      <c r="M12" s="66" t="s">
+      <c r="M12" s="64" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="86"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="8"/>
       <c r="D13" s="21"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
     </row>
     <row r="14" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14"/>
@@ -3527,14 +3548,14 @@
     </row>
     <row r="15" spans="2:13" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="23"/>
-      <c r="C15" s="92" t="s">
+      <c r="C15" s="101" t="s">
         <v>182</v>
       </c>
-      <c r="D15" s="93"/>
-      <c r="E15" s="95"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="104"/>
       <c r="I15" s="3"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
@@ -3546,20 +3567,20 @@
       <c r="D16" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="59"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42">
+      <c r="F16" s="57"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41">
         <v>0</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="L16" s="66" t="s">
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="L16" s="64" t="s">
         <v>339</v>
       </c>
-      <c r="M16" s="66" t="s">
+      <c r="M16" s="64" t="s">
         <v>317</v>
       </c>
     </row>
@@ -3573,20 +3594,20 @@
       <c r="D17" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="59"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42">
+      <c r="F17" s="57"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41">
         <v>0</v>
       </c>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="L17" s="66" t="s">
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="L17" s="64" t="s">
         <v>340</v>
       </c>
-      <c r="M17" s="66" t="s">
+      <c r="M17" s="64" t="s">
         <v>318</v>
       </c>
     </row>
@@ -3600,20 +3621,20 @@
       <c r="D18" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="59"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42">
+      <c r="F18" s="57"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41">
         <v>0</v>
       </c>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="L18" s="68" t="s">
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="L18" s="66" t="s">
         <v>319</v>
       </c>
-      <c r="M18" s="68" t="s">
+      <c r="M18" s="66" t="s">
         <v>321</v>
       </c>
     </row>
@@ -3624,53 +3645,63 @@
       <c r="C19" s="9">
         <v>3</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="59"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42">
+      <c r="F19" s="57"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41">
         <v>0</v>
       </c>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="L19" s="68" t="s">
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="L19" s="66" t="s">
         <v>322</v>
       </c>
-      <c r="M19" s="68" t="s">
+      <c r="M19" s="66" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="4"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
+      <c r="B20" s="108">
+        <v>11</v>
+      </c>
+      <c r="C20" s="109">
+        <v>3</v>
+      </c>
+      <c r="D20" s="110" t="s">
+        <v>571</v>
+      </c>
+      <c r="E20" s="111" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>572</v>
+      </c>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
     </row>
     <row r="21" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="72"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="70"/>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="2:13" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="29"/>
-      <c r="C22" s="96" t="s">
+      <c r="B22" s="28"/>
+      <c r="C22" s="105" t="s">
         <v>194</v>
       </c>
-      <c r="D22" s="97"/>
-      <c r="E22" s="98"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="107"/>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
@@ -3681,17 +3712,17 @@
       <c r="D23" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="44"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="46"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="44"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="87">
+      <c r="B24" s="92">
         <v>15</v>
       </c>
       <c r="C24" s="15" t="s">
@@ -3703,22 +3734,22 @@
       <c r="E24" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="F24" s="59"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="J24" s="42"/>
-      <c r="L24" s="66" t="s">
+      <c r="F24" s="57"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J24" s="41"/>
+      <c r="L24" s="64" t="s">
         <v>212</v>
       </c>
-      <c r="M24" s="66" t="s">
+      <c r="M24" s="64" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="87"/>
+      <c r="B25" s="92"/>
       <c r="C25" s="15" t="s">
         <v>160</v>
       </c>
@@ -3728,22 +3759,22 @@
       <c r="E25" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="F25" s="59"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="J25" s="42"/>
-      <c r="L25" s="66" t="s">
+      <c r="F25" s="57"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J25" s="41"/>
+      <c r="L25" s="64" t="s">
         <v>353</v>
       </c>
-      <c r="M25" s="66" t="s">
+      <c r="M25" s="64" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="87"/>
+      <c r="B26" s="92"/>
       <c r="C26" s="15" t="s">
         <v>161</v>
       </c>
@@ -3753,22 +3784,22 @@
       <c r="E26" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="F26" s="59"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="J26" s="42"/>
-      <c r="L26" s="66" t="s">
+      <c r="F26" s="57"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J26" s="41"/>
+      <c r="L26" s="64" t="s">
         <v>355</v>
       </c>
-      <c r="M26" s="66" t="s">
+      <c r="M26" s="64" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="87"/>
+      <c r="B27" s="92"/>
       <c r="C27" s="15" t="s">
         <v>162</v>
       </c>
@@ -3778,22 +3809,22 @@
       <c r="E27" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="F27" s="59"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="J27" s="42"/>
-      <c r="L27" s="66" t="s">
+      <c r="F27" s="57"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J27" s="41"/>
+      <c r="L27" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="M27" s="66" t="s">
+      <c r="M27" s="64" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="87"/>
+      <c r="B28" s="92"/>
       <c r="C28" s="15" t="s">
         <v>163</v>
       </c>
@@ -3803,22 +3834,22 @@
       <c r="E28" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="F28" s="59"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="J28" s="42"/>
-      <c r="L28" s="66" t="s">
+      <c r="F28" s="57"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J28" s="41"/>
+      <c r="L28" s="64" t="s">
         <v>196</v>
       </c>
-      <c r="M28" s="66" t="s">
+      <c r="M28" s="64" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B29" s="87"/>
+      <c r="B29" s="92"/>
       <c r="C29" s="15" t="s">
         <v>164</v>
       </c>
@@ -3828,22 +3859,22 @@
       <c r="E29" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="F29" s="59"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="J29" s="42"/>
-      <c r="L29" s="66" t="s">
+      <c r="F29" s="57"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J29" s="41"/>
+      <c r="L29" s="64" t="s">
         <v>297</v>
       </c>
-      <c r="M29" s="66" t="s">
+      <c r="M29" s="64" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="87"/>
+      <c r="B30" s="92"/>
       <c r="C30" s="15" t="s">
         <v>165</v>
       </c>
@@ -3853,22 +3884,22 @@
       <c r="E30" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="F30" s="59"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="J30" s="42"/>
-      <c r="L30" s="66" t="s">
+      <c r="F30" s="57"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J30" s="41"/>
+      <c r="L30" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="M30" s="66" t="s">
+      <c r="M30" s="64" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="87"/>
+      <c r="B31" s="92"/>
       <c r="C31" s="15" t="s">
         <v>166</v>
       </c>
@@ -3878,22 +3909,22 @@
       <c r="E31" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="F31" s="60"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="J31" s="42"/>
-      <c r="L31" s="66" t="s">
+      <c r="F31" s="58"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J31" s="41"/>
+      <c r="L31" s="64" t="s">
         <v>198</v>
       </c>
-      <c r="M31" s="66" t="s">
+      <c r="M31" s="64" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B32" s="87"/>
+      <c r="B32" s="92"/>
       <c r="C32" s="15" t="s">
         <v>167</v>
       </c>
@@ -3903,22 +3934,22 @@
       <c r="E32" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="F32" s="60"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="J32" s="42"/>
-      <c r="L32" s="66" t="s">
+      <c r="F32" s="58"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J32" s="41"/>
+      <c r="L32" s="64" t="s">
         <v>199</v>
       </c>
-      <c r="M32" s="66" t="s">
+      <c r="M32" s="64" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B33" s="87"/>
+      <c r="B33" s="92"/>
       <c r="C33" s="15" t="s">
         <v>168</v>
       </c>
@@ -3928,22 +3959,22 @@
       <c r="E33" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="F33" s="60"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="J33" s="42"/>
-      <c r="L33" s="66" t="s">
+      <c r="F33" s="58"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J33" s="41"/>
+      <c r="L33" s="64" t="s">
         <v>299</v>
       </c>
-      <c r="M33" s="66" t="s">
+      <c r="M33" s="64" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B34" s="87"/>
+      <c r="B34" s="92"/>
       <c r="C34" s="15" t="s">
         <v>169</v>
       </c>
@@ -3953,22 +3984,22 @@
       <c r="E34" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="F34" s="60"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="J34" s="42"/>
-      <c r="L34" s="66" t="s">
+      <c r="F34" s="58"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J34" s="41"/>
+      <c r="L34" s="64" t="s">
         <v>200</v>
       </c>
-      <c r="M34" s="66" t="s">
+      <c r="M34" s="64" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B35" s="87"/>
+      <c r="B35" s="92"/>
       <c r="C35" s="15" t="s">
         <v>170</v>
       </c>
@@ -3978,22 +4009,22 @@
       <c r="E35" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="F35" s="60"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="J35" s="42"/>
-      <c r="L35" s="66" t="s">
+      <c r="F35" s="58"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J35" s="41"/>
+      <c r="L35" s="64" t="s">
         <v>201</v>
       </c>
-      <c r="M35" s="66" t="s">
+      <c r="M35" s="64" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B36" s="87"/>
+      <c r="B36" s="92"/>
       <c r="C36" s="15" t="s">
         <v>171</v>
       </c>
@@ -4003,22 +4034,22 @@
       <c r="E36" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="F36" s="60"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="J36" s="42"/>
-      <c r="L36" s="66" t="s">
+      <c r="F36" s="58"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J36" s="41"/>
+      <c r="L36" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="M36" s="66" t="s">
+      <c r="M36" s="64" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B37" s="87"/>
+      <c r="B37" s="92"/>
       <c r="C37" s="15" t="s">
         <v>172</v>
       </c>
@@ -4028,22 +4059,22 @@
       <c r="E37" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="F37" s="60"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="J37" s="42"/>
-      <c r="L37" s="66" t="s">
+      <c r="F37" s="58"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J37" s="41"/>
+      <c r="L37" s="64" t="s">
         <v>203</v>
       </c>
-      <c r="M37" s="66" t="s">
+      <c r="M37" s="64" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B38" s="87"/>
+      <c r="B38" s="92"/>
       <c r="C38" s="15" t="s">
         <v>173</v>
       </c>
@@ -4053,61 +4084,61 @@
       <c r="E38" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="F38" s="60"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="J38" s="42"/>
-      <c r="L38" s="66" t="s">
+      <c r="F38" s="58"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J38" s="41"/>
+      <c r="L38" s="64" t="s">
         <v>204</v>
       </c>
-      <c r="M38" s="66" t="s">
+      <c r="M38" s="64" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B39" s="105"/>
+      <c r="B39" s="93"/>
       <c r="C39" s="15" t="s">
         <v>174</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="21"/>
-      <c r="F39" s="59" t="s">
+      <c r="F39" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="L39" s="66"/>
-      <c r="M39" s="66"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="L39" s="64"/>
+      <c r="M39" s="64"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="10"/>
-      <c r="C40" s="31" t="s">
+      <c r="C40" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="28" t="s">
+      <c r="D40" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="E40" s="57" t="s">
+      <c r="E40" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="F40" s="59"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="L40" s="66"/>
-      <c r="M40" s="66"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="L40" s="64"/>
+      <c r="M40" s="64"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="84">
+      <c r="B41" s="94">
         <v>16</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="52" t="s">
         <v>143</v>
       </c>
       <c r="D41" s="21" t="s">
@@ -4116,27 +4147,27 @@
       <c r="E41" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="F41" s="63" t="s">
+      <c r="F41" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="J41" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="L41" s="68" t="s">
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J41" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="L41" s="66" t="s">
         <v>566</v>
       </c>
-      <c r="M41" s="68" t="s">
+      <c r="M41" s="66" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B42" s="87"/>
-      <c r="C42" s="54" t="s">
+      <c r="B42" s="92"/>
+      <c r="C42" s="52" t="s">
         <v>144</v>
       </c>
       <c r="D42" s="21" t="s">
@@ -4145,27 +4176,27 @@
       <c r="E42" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F42" s="59" t="s">
+      <c r="F42" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="J42" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="L42" s="66" t="s">
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J42" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="L42" s="64" t="s">
         <v>345</v>
       </c>
-      <c r="M42" s="66" t="s">
+      <c r="M42" s="64" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B43" s="87"/>
-      <c r="C43" s="54" t="s">
+      <c r="B43" s="92"/>
+      <c r="C43" s="52" t="s">
         <v>145</v>
       </c>
       <c r="D43" s="21" t="s">
@@ -4174,67 +4205,67 @@
       <c r="E43" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F43" s="63" t="s">
+      <c r="F43" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="J43" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="L43" s="68" t="s">
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J43" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="L43" s="66" t="s">
         <v>426</v>
       </c>
-      <c r="M43" s="68" t="s">
+      <c r="M43" s="66" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B44" s="87"/>
-      <c r="C44" s="55" t="s">
+      <c r="B44" s="92"/>
+      <c r="C44" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="D44" s="56" t="s">
+      <c r="D44" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="E44" s="56" t="s">
+      <c r="E44" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="F44" s="99" t="s">
+      <c r="F44" s="86" t="s">
         <v>188</v>
       </c>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
-      <c r="L44" s="66"/>
-      <c r="M44" s="66"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
+      <c r="L44" s="64"/>
+      <c r="M44" s="64"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B45" s="87"/>
-      <c r="C45" s="55" t="s">
+      <c r="B45" s="92"/>
+      <c r="C45" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="D45" s="56" t="s">
+      <c r="D45" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="E45" s="56" t="s">
+      <c r="E45" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="99"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="51"/>
-      <c r="L45" s="66"/>
-      <c r="M45" s="66"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
+      <c r="L45" s="64"/>
+      <c r="M45" s="64"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B46" s="87"/>
-      <c r="C46" s="54" t="s">
+      <c r="B46" s="92"/>
+      <c r="C46" s="52" t="s">
         <v>148</v>
       </c>
       <c r="D46" s="21" t="s">
@@ -4243,27 +4274,27 @@
       <c r="E46" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F46" s="63" t="s">
+      <c r="F46" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="J46" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="L46" s="66" t="s">
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J46" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="L46" s="64" t="s">
         <v>356</v>
       </c>
-      <c r="M46" s="66" t="s">
+      <c r="M46" s="64" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B47" s="87"/>
-      <c r="C47" s="54" t="s">
+      <c r="B47" s="92"/>
+      <c r="C47" s="52" t="s">
         <v>149</v>
       </c>
       <c r="D47" s="21" t="s">
@@ -4272,27 +4303,27 @@
       <c r="E47" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F47" s="59" t="s">
+      <c r="F47" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="J47" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="L47" s="66" t="s">
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J47" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="L47" s="64" t="s">
         <v>258</v>
       </c>
-      <c r="M47" s="66" t="s">
+      <c r="M47" s="64" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B48" s="87"/>
-      <c r="C48" s="54" t="s">
+      <c r="B48" s="92"/>
+      <c r="C48" s="52" t="s">
         <v>150</v>
       </c>
       <c r="D48" s="21" t="s">
@@ -4301,27 +4332,27 @@
       <c r="E48" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F48" s="59" t="s">
+      <c r="F48" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="J48" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="L48" s="66" t="s">
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J48" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="L48" s="64" t="s">
         <v>259</v>
       </c>
-      <c r="M48" s="66" t="s">
+      <c r="M48" s="64" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B49" s="87"/>
-      <c r="C49" s="54" t="s">
+      <c r="B49" s="92"/>
+      <c r="C49" s="52" t="s">
         <v>151</v>
       </c>
       <c r="D49" s="21" t="s">
@@ -4330,46 +4361,46 @@
       <c r="E49" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F49" s="63" t="s">
+      <c r="F49" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="J49" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="L49" s="68" t="s">
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J49" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="L49" s="66" t="s">
         <v>565</v>
       </c>
-      <c r="M49" s="68" t="s">
+      <c r="M49" s="66" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B50" s="87"/>
-      <c r="C50" s="55" t="s">
+      <c r="B50" s="92"/>
+      <c r="C50" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="D50" s="56" t="s">
+      <c r="D50" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="E50" s="56" t="s">
+      <c r="E50" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="F50" s="64"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="51"/>
-      <c r="L50" s="66"/>
-      <c r="M50" s="66"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="L50" s="64"/>
+      <c r="M50" s="64"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B51" s="87"/>
-      <c r="C51" s="54" t="s">
+      <c r="B51" s="92"/>
+      <c r="C51" s="52" t="s">
         <v>153</v>
       </c>
       <c r="D51" s="21" t="s">
@@ -4378,27 +4409,27 @@
       <c r="E51" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F51" s="59" t="s">
+      <c r="F51" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="J51" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="L51" s="66" t="s">
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J51" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="L51" s="64" t="s">
         <v>256</v>
       </c>
-      <c r="M51" s="66" t="s">
+      <c r="M51" s="64" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B52" s="87"/>
-      <c r="C52" s="54" t="s">
+      <c r="B52" s="92"/>
+      <c r="C52" s="52" t="s">
         <v>154</v>
       </c>
       <c r="D52" s="21" t="s">
@@ -4407,48 +4438,48 @@
       <c r="E52" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F52" s="63" t="s">
+      <c r="F52" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="J52" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="L52" s="66" t="s">
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J52" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="L52" s="64" t="s">
         <v>252</v>
       </c>
-      <c r="M52" s="66" t="s">
+      <c r="M52" s="64" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B53" s="85"/>
-      <c r="C53" s="55" t="s">
+      <c r="B53" s="95"/>
+      <c r="C53" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="D53" s="56" t="s">
+      <c r="D53" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="E53" s="56" t="s">
+      <c r="E53" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="F53" s="62" t="s">
+      <c r="F53" s="60" t="s">
         <v>189</v>
       </c>
-      <c r="G53" s="52"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="51"/>
-      <c r="J53" s="51"/>
-      <c r="L53" s="66"/>
-      <c r="M53" s="66"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="49"/>
+      <c r="J53" s="49"/>
+      <c r="L53" s="64"/>
+      <c r="M53" s="64"/>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B54" s="85"/>
-      <c r="C54" s="54" t="s">
+      <c r="B54" s="95"/>
+      <c r="C54" s="52" t="s">
         <v>156</v>
       </c>
       <c r="D54" s="21" t="s">
@@ -4457,25 +4488,25 @@
       <c r="E54" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F54" s="59"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="J54" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="L54" s="66" t="s">
+      <c r="F54" s="57"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J54" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="L54" s="64" t="s">
         <v>253</v>
       </c>
-      <c r="M54" s="66" t="s">
+      <c r="M54" s="64" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B55" s="85"/>
-      <c r="C55" s="54" t="s">
+      <c r="B55" s="95"/>
+      <c r="C55" s="52" t="s">
         <v>157</v>
       </c>
       <c r="D55" s="21" t="s">
@@ -4484,64 +4515,64 @@
       <c r="E55" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F55" s="59" t="s">
+      <c r="F55" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="J55" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="L55" s="66" t="s">
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J55" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="L55" s="64" t="s">
         <v>257</v>
       </c>
-      <c r="M55" s="66" t="s">
+      <c r="M55" s="64" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B56" s="86"/>
-      <c r="C56" s="106" t="s">
+      <c r="B56" s="96"/>
+      <c r="C56" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="D56" s="107" t="s">
+      <c r="D56" s="83" t="s">
         <v>569</v>
       </c>
-      <c r="E56" s="107" t="s">
+      <c r="E56" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="F56" s="108"/>
-      <c r="G56" s="109"/>
-      <c r="H56" s="109"/>
-      <c r="I56" s="109" t="s">
-        <v>180</v>
-      </c>
-      <c r="J56" s="109" t="s">
-        <v>180</v>
-      </c>
-      <c r="L56" s="66"/>
-      <c r="M56" s="66"/>
+      <c r="F56" s="84"/>
+      <c r="G56" s="85"/>
+      <c r="H56" s="85"/>
+      <c r="I56" s="85" t="s">
+        <v>180</v>
+      </c>
+      <c r="J56" s="85" t="s">
+        <v>180</v>
+      </c>
+      <c r="L56" s="64"/>
+      <c r="M56" s="64"/>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
-      <c r="C57" s="35" t="s">
+      <c r="C57" s="34" t="s">
         <v>75</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="E57" s="57" t="s">
+      <c r="E57" s="55" t="s">
         <v>77</v>
       </c>
       <c r="I57" s="3"/>
-      <c r="L57" s="66"/>
-      <c r="M57" s="66"/>
+      <c r="L57" s="64"/>
+      <c r="M57" s="64"/>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B58" s="84">
+      <c r="B58" s="94">
         <v>17</v>
       </c>
       <c r="C58" s="16" t="s">
@@ -4553,26 +4584,26 @@
       <c r="E58" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="F58" s="61" t="s">
+      <c r="F58" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="J58" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="L58" s="66" t="s">
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J58" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="L58" s="64" t="s">
         <v>315</v>
       </c>
-      <c r="M58" s="66" t="s">
+      <c r="M58" s="64" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B59" s="85"/>
+      <c r="B59" s="95"/>
       <c r="C59" s="16" t="s">
         <v>129</v>
       </c>
@@ -4582,26 +4613,26 @@
       <c r="E59" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F59" s="60" t="s">
+      <c r="F59" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="J59" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="L59" s="66" t="s">
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J59" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="L59" s="64" t="s">
         <v>417</v>
       </c>
-      <c r="M59" s="66" t="s">
+      <c r="M59" s="64" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B60" s="85"/>
+      <c r="B60" s="95"/>
       <c r="C60" s="16" t="s">
         <v>130</v>
       </c>
@@ -4611,26 +4642,26 @@
       <c r="E60" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F60" s="60" t="s">
+      <c r="F60" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="J60" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="L60" s="66" t="s">
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J60" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="L60" s="64" t="s">
         <v>418</v>
       </c>
-      <c r="M60" s="66" t="s">
+      <c r="M60" s="64" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B61" s="85"/>
+      <c r="B61" s="95"/>
       <c r="C61" s="16" t="s">
         <v>131</v>
       </c>
@@ -4640,26 +4671,26 @@
       <c r="E61" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F61" s="61" t="s">
+      <c r="F61" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="J61" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="L61" s="66" t="s">
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J61" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="L61" s="64" t="s">
         <v>214</v>
       </c>
-      <c r="M61" s="66" t="s">
+      <c r="M61" s="64" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B62" s="85"/>
+      <c r="B62" s="95"/>
       <c r="C62" s="16" t="s">
         <v>132</v>
       </c>
@@ -4669,26 +4700,26 @@
       <c r="E62" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F62" s="61" t="s">
+      <c r="F62" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="G62" s="42"/>
-      <c r="H62" s="42"/>
-      <c r="I62" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="J62" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="L62" s="66" t="s">
+      <c r="G62" s="41"/>
+      <c r="H62" s="41"/>
+      <c r="I62" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J62" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="L62" s="64" t="s">
         <v>216</v>
       </c>
-      <c r="M62" s="66" t="s">
+      <c r="M62" s="64" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B63" s="85"/>
+      <c r="B63" s="95"/>
       <c r="C63" s="16" t="s">
         <v>133</v>
       </c>
@@ -4698,26 +4729,26 @@
       <c r="E63" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F63" s="61" t="s">
+      <c r="F63" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="G63" s="42"/>
-      <c r="H63" s="42"/>
-      <c r="I63" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="J63" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="L63" s="66" t="s">
+      <c r="G63" s="41"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J63" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="L63" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="M63" s="66" t="s">
+      <c r="M63" s="64" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B64" s="85"/>
+      <c r="B64" s="95"/>
       <c r="C64" s="16" t="s">
         <v>134</v>
       </c>
@@ -4727,24 +4758,24 @@
       <c r="E64" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F64" s="60"/>
-      <c r="G64" s="42"/>
-      <c r="H64" s="42"/>
-      <c r="I64" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="J64" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="L64" s="66" t="s">
+      <c r="F64" s="58"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="41"/>
+      <c r="I64" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J64" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="L64" s="64" t="s">
         <v>219</v>
       </c>
-      <c r="M64" s="66" t="s">
+      <c r="M64" s="64" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B65" s="85"/>
+      <c r="B65" s="95"/>
       <c r="C65" s="16" t="s">
         <v>570</v>
       </c>
@@ -4754,26 +4785,26 @@
       <c r="E65" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F65" s="61" t="s">
+      <c r="F65" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="G65" s="42"/>
-      <c r="H65" s="42"/>
-      <c r="I65" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="J65" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="L65" s="66" t="s">
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J65" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="L65" s="64" t="s">
         <v>220</v>
       </c>
-      <c r="M65" s="66" t="s">
+      <c r="M65" s="64" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B66" s="85"/>
+      <c r="B66" s="95"/>
       <c r="C66" s="16" t="s">
         <v>135</v>
       </c>
@@ -4783,26 +4814,26 @@
       <c r="E66" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F66" s="60" t="s">
+      <c r="F66" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="G66" s="42"/>
-      <c r="H66" s="42"/>
-      <c r="I66" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="J66" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="L66" s="66" t="s">
+      <c r="G66" s="41"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J66" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="L66" s="64" t="s">
         <v>222</v>
       </c>
-      <c r="M66" s="66" t="s">
+      <c r="M66" s="64" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B67" s="85"/>
+      <c r="B67" s="95"/>
       <c r="C67" s="16" t="s">
         <v>136</v>
       </c>
@@ -4812,26 +4843,26 @@
       <c r="E67" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F67" s="60" t="s">
+      <c r="F67" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
-      <c r="I67" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="J67" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="L67" s="66" t="s">
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J67" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="L67" s="64" t="s">
         <v>419</v>
       </c>
-      <c r="M67" s="66" t="s">
+      <c r="M67" s="64" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B68" s="85"/>
+      <c r="B68" s="95"/>
       <c r="C68" s="16" t="s">
         <v>137</v>
       </c>
@@ -4841,26 +4872,26 @@
       <c r="E68" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F68" s="60" t="s">
+      <c r="F68" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="G68" s="42"/>
-      <c r="H68" s="42"/>
-      <c r="I68" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="J68" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="L68" s="66" t="s">
+      <c r="G68" s="41"/>
+      <c r="H68" s="41"/>
+      <c r="I68" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J68" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="L68" s="64" t="s">
         <v>420</v>
       </c>
-      <c r="M68" s="66" t="s">
+      <c r="M68" s="64" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B69" s="85"/>
+      <c r="B69" s="95"/>
       <c r="C69" s="16" t="s">
         <v>138</v>
       </c>
@@ -4870,26 +4901,26 @@
       <c r="E69" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F69" s="60" t="s">
+      <c r="F69" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="G69" s="42"/>
-      <c r="H69" s="42"/>
-      <c r="I69" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="J69" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="L69" s="66" t="s">
+      <c r="G69" s="41"/>
+      <c r="H69" s="41"/>
+      <c r="I69" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J69" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="L69" s="64" t="s">
         <v>421</v>
       </c>
-      <c r="M69" s="66" t="s">
+      <c r="M69" s="64" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B70" s="85"/>
+      <c r="B70" s="95"/>
       <c r="C70" s="16" t="s">
         <v>139</v>
       </c>
@@ -4899,24 +4930,24 @@
       <c r="E70" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F70" s="60"/>
-      <c r="G70" s="42"/>
-      <c r="H70" s="42"/>
-      <c r="I70" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="J70" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="L70" s="66" t="s">
+      <c r="F70" s="58"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J70" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="L70" s="64" t="s">
         <v>228</v>
       </c>
-      <c r="M70" s="66" t="s">
+      <c r="M70" s="64" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B71" s="85"/>
+      <c r="B71" s="95"/>
       <c r="C71" s="16" t="s">
         <v>140</v>
       </c>
@@ -4926,26 +4957,26 @@
       <c r="E71" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F71" s="60" t="s">
+      <c r="F71" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="G71" s="42"/>
-      <c r="H71" s="42"/>
-      <c r="I71" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="J71" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="L71" s="66" t="s">
+      <c r="G71" s="41"/>
+      <c r="H71" s="41"/>
+      <c r="I71" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J71" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="L71" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="M71" s="66" t="s">
+      <c r="M71" s="64" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B72" s="85"/>
+      <c r="B72" s="95"/>
       <c r="C72" s="16" t="s">
         <v>141</v>
       </c>
@@ -4955,36 +4986,36 @@
       <c r="E72" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F72" s="60"/>
-      <c r="G72" s="42"/>
-      <c r="H72" s="42"/>
-      <c r="I72" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="J72" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="L72" s="66" t="s">
+      <c r="F72" s="58"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J72" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="L72" s="64" t="s">
         <v>347</v>
       </c>
-      <c r="M72" s="66" t="s">
+      <c r="M72" s="64" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="73" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="88"/>
+      <c r="B73" s="97"/>
       <c r="C73" s="16" t="s">
         <v>142</v>
       </c>
       <c r="D73" s="24"/>
-      <c r="E73" s="47"/>
-      <c r="F73" s="59"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="42"/>
-      <c r="I73" s="46"/>
-      <c r="J73" s="46"/>
-      <c r="L73" s="69"/>
-      <c r="M73" s="66"/>
+      <c r="E73" s="45"/>
+      <c r="F73" s="57"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="41"/>
+      <c r="I73" s="44"/>
+      <c r="J73" s="44"/>
+      <c r="L73" s="67"/>
+      <c r="M73" s="64"/>
     </row>
     <row r="74" spans="2:13" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B74" s="7"/>
@@ -4994,16 +5025,16 @@
       <c r="F74" s="20"/>
       <c r="G74" s="12"/>
       <c r="H74" s="20"/>
-      <c r="L74" s="66"/>
-      <c r="M74" s="66"/>
+      <c r="L74" s="64"/>
+      <c r="M74" s="64"/>
     </row>
     <row r="75" spans="2:13" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B75" s="23"/>
-      <c r="C75" s="100" t="s">
+      <c r="C75" s="87" t="s">
         <v>185</v>
       </c>
-      <c r="D75" s="100"/>
-      <c r="E75" s="101"/>
+      <c r="D75" s="87"/>
+      <c r="E75" s="88"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B76" s="4">
@@ -5015,20 +5046,20 @@
       <c r="D76" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="E76" s="37" t="s">
+      <c r="E76" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="F76" s="59"/>
-      <c r="G76" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="H76" s="42"/>
-      <c r="I76" s="46"/>
-      <c r="J76" s="46"/>
-      <c r="L76" s="66" t="s">
+      <c r="F76" s="57"/>
+      <c r="G76" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="H76" s="41"/>
+      <c r="I76" s="44"/>
+      <c r="J76" s="44"/>
+      <c r="L76" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="M76" s="66" t="s">
+      <c r="M76" s="64" t="s">
         <v>260</v>
       </c>
     </row>
@@ -5042,20 +5073,20 @@
       <c r="D77" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E77" s="37" t="s">
+      <c r="E77" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="F77" s="59"/>
-      <c r="G77" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="H77" s="42"/>
-      <c r="I77" s="46"/>
-      <c r="J77" s="46"/>
-      <c r="L77" s="66" t="s">
+      <c r="F77" s="57"/>
+      <c r="G77" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="H77" s="41"/>
+      <c r="I77" s="44"/>
+      <c r="J77" s="44"/>
+      <c r="L77" s="64" t="s">
         <v>266</v>
       </c>
-      <c r="M77" s="66" t="s">
+      <c r="M77" s="64" t="s">
         <v>261</v>
       </c>
     </row>
@@ -5069,20 +5100,20 @@
       <c r="D78" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E78" s="37" t="s">
+      <c r="E78" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="F78" s="59"/>
-      <c r="G78" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="H78" s="42"/>
-      <c r="I78" s="46"/>
-      <c r="J78" s="46"/>
-      <c r="L78" s="66" t="s">
+      <c r="F78" s="57"/>
+      <c r="G78" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="H78" s="41"/>
+      <c r="I78" s="44"/>
+      <c r="J78" s="44"/>
+      <c r="L78" s="64" t="s">
         <v>267</v>
       </c>
-      <c r="M78" s="66" t="s">
+      <c r="M78" s="64" t="s">
         <v>1</v>
       </c>
     </row>
@@ -5096,20 +5127,20 @@
       <c r="D79" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E79" s="37" t="s">
+      <c r="E79" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="F79" s="59"/>
-      <c r="G79" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="H79" s="42"/>
-      <c r="I79" s="46"/>
-      <c r="J79" s="46"/>
-      <c r="L79" s="66" t="s">
+      <c r="F79" s="57"/>
+      <c r="G79" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="H79" s="41"/>
+      <c r="I79" s="44"/>
+      <c r="J79" s="44"/>
+      <c r="L79" s="64" t="s">
         <v>268</v>
       </c>
-      <c r="M79" s="66" t="s">
+      <c r="M79" s="64" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5123,20 +5154,20 @@
       <c r="D80" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E80" s="37" t="s">
+      <c r="E80" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F80" s="59"/>
-      <c r="G80" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="H80" s="42"/>
-      <c r="I80" s="46"/>
-      <c r="J80" s="46"/>
-      <c r="L80" s="66" t="s">
+      <c r="F80" s="57"/>
+      <c r="G80" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="H80" s="41"/>
+      <c r="I80" s="44"/>
+      <c r="J80" s="44"/>
+      <c r="L80" s="64" t="s">
         <v>269</v>
       </c>
-      <c r="M80" s="66" t="s">
+      <c r="M80" s="64" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5150,20 +5181,20 @@
       <c r="D81" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E81" s="37" t="s">
+      <c r="E81" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F81" s="59"/>
-      <c r="G81" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="H81" s="42"/>
-      <c r="I81" s="46"/>
-      <c r="J81" s="46"/>
-      <c r="L81" s="66" t="s">
+      <c r="F81" s="57"/>
+      <c r="G81" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="H81" s="41"/>
+      <c r="I81" s="44"/>
+      <c r="J81" s="44"/>
+      <c r="L81" s="64" t="s">
         <v>270</v>
       </c>
-      <c r="M81" s="66" t="s">
+      <c r="M81" s="64" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5177,20 +5208,20 @@
       <c r="D82" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E82" s="37" t="s">
+      <c r="E82" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="F82" s="59"/>
-      <c r="G82" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="H82" s="42"/>
-      <c r="I82" s="46"/>
-      <c r="J82" s="46"/>
-      <c r="L82" s="66" t="s">
+      <c r="F82" s="57"/>
+      <c r="G82" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="H82" s="41"/>
+      <c r="I82" s="44"/>
+      <c r="J82" s="44"/>
+      <c r="L82" s="64" t="s">
         <v>271</v>
       </c>
-      <c r="M82" s="66" t="s">
+      <c r="M82" s="64" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5204,20 +5235,20 @@
       <c r="D83" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E83" s="37" t="s">
+      <c r="E83" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F83" s="59"/>
-      <c r="G83" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="H83" s="42"/>
-      <c r="I83" s="46"/>
-      <c r="J83" s="46"/>
-      <c r="L83" s="66" t="s">
+      <c r="F83" s="57"/>
+      <c r="G83" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="H83" s="41"/>
+      <c r="I83" s="44"/>
+      <c r="J83" s="44"/>
+      <c r="L83" s="64" t="s">
         <v>272</v>
       </c>
-      <c r="M83" s="66" t="s">
+      <c r="M83" s="64" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5231,20 +5262,20 @@
       <c r="D84" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E84" s="49" t="s">
+      <c r="E84" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="F84" s="59"/>
-      <c r="G84" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="H84" s="42"/>
-      <c r="I84" s="46"/>
-      <c r="J84" s="46"/>
-      <c r="L84" s="66" t="s">
+      <c r="F84" s="57"/>
+      <c r="G84" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="H84" s="41"/>
+      <c r="I84" s="44"/>
+      <c r="J84" s="44"/>
+      <c r="L84" s="64" t="s">
         <v>273</v>
       </c>
-      <c r="M84" s="66" t="s">
+      <c r="M84" s="64" t="s">
         <v>262</v>
       </c>
     </row>
@@ -5258,20 +5289,20 @@
       <c r="D85" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E85" s="49" t="s">
+      <c r="E85" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="F85" s="59"/>
-      <c r="G85" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="H85" s="42"/>
-      <c r="I85" s="46"/>
-      <c r="J85" s="46"/>
-      <c r="L85" s="66" t="s">
+      <c r="F85" s="57"/>
+      <c r="G85" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="H85" s="41"/>
+      <c r="I85" s="44"/>
+      <c r="J85" s="44"/>
+      <c r="L85" s="64" t="s">
         <v>350</v>
       </c>
-      <c r="M85" s="66" t="s">
+      <c r="M85" s="64" t="s">
         <v>351</v>
       </c>
     </row>
@@ -5282,23 +5313,23 @@
       <c r="C86" s="9">
         <v>10</v>
       </c>
-      <c r="D86" s="33" t="s">
+      <c r="D86" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="E86" s="50" t="s">
+      <c r="E86" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="F86" s="59"/>
-      <c r="G86" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="H86" s="42"/>
-      <c r="I86" s="46"/>
-      <c r="J86" s="46"/>
-      <c r="L86" s="66" t="s">
+      <c r="F86" s="57"/>
+      <c r="G86" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="H86" s="41"/>
+      <c r="I86" s="44"/>
+      <c r="J86" s="44"/>
+      <c r="L86" s="64" t="s">
         <v>274</v>
       </c>
-      <c r="M86" s="66" t="s">
+      <c r="M86" s="64" t="s">
         <v>263</v>
       </c>
     </row>
@@ -5309,23 +5340,23 @@
       <c r="C87" s="9">
         <v>11</v>
       </c>
-      <c r="D87" s="33" t="s">
+      <c r="D87" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="E87" s="50" t="s">
+      <c r="E87" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="F87" s="59"/>
-      <c r="G87" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="H87" s="42"/>
-      <c r="I87" s="46"/>
-      <c r="J87" s="46"/>
-      <c r="L87" s="66" t="s">
+      <c r="F87" s="57"/>
+      <c r="G87" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="H87" s="41"/>
+      <c r="I87" s="44"/>
+      <c r="J87" s="44"/>
+      <c r="L87" s="64" t="s">
         <v>275</v>
       </c>
-      <c r="M87" s="66" t="s">
+      <c r="M87" s="64" t="s">
         <v>264</v>
       </c>
     </row>
@@ -5339,20 +5370,20 @@
       <c r="D88" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="E88" s="37" t="s">
+      <c r="E88" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="F88" s="59"/>
-      <c r="G88" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="H88" s="42"/>
-      <c r="I88" s="46"/>
-      <c r="J88" s="46"/>
-      <c r="L88" s="66" t="s">
+      <c r="F88" s="57"/>
+      <c r="G88" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="H88" s="41"/>
+      <c r="I88" s="44"/>
+      <c r="J88" s="44"/>
+      <c r="L88" s="64" t="s">
         <v>276</v>
       </c>
-      <c r="M88" s="66" t="s">
+      <c r="M88" s="64" t="s">
         <v>277</v>
       </c>
     </row>
@@ -5366,20 +5397,20 @@
       <c r="D89" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E89" s="45" t="s">
+      <c r="E89" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="F89" s="59"/>
-      <c r="G89" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="H89" s="42"/>
-      <c r="I89" s="46"/>
-      <c r="J89" s="46"/>
-      <c r="L89" s="66" t="s">
+      <c r="F89" s="57"/>
+      <c r="G89" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="H89" s="41"/>
+      <c r="I89" s="44"/>
+      <c r="J89" s="44"/>
+      <c r="L89" s="64" t="s">
         <v>279</v>
       </c>
-      <c r="M89" s="66" t="s">
+      <c r="M89" s="64" t="s">
         <v>278</v>
       </c>
     </row>
@@ -5393,20 +5424,20 @@
       <c r="D90" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="E90" s="45" t="s">
+      <c r="E90" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="F90" s="59"/>
-      <c r="G90" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="H90" s="42"/>
-      <c r="I90" s="46"/>
-      <c r="J90" s="46"/>
-      <c r="L90" s="66" t="s">
+      <c r="F90" s="57"/>
+      <c r="G90" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="H90" s="41"/>
+      <c r="I90" s="44"/>
+      <c r="J90" s="44"/>
+      <c r="L90" s="64" t="s">
         <v>280</v>
       </c>
-      <c r="M90" s="66" t="s">
+      <c r="M90" s="64" t="s">
         <v>281</v>
       </c>
     </row>
@@ -5418,11 +5449,11 @@
     </row>
     <row r="92" spans="2:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B92" s="23"/>
-      <c r="C92" s="102" t="s">
+      <c r="C92" s="89" t="s">
         <v>183</v>
       </c>
-      <c r="D92" s="103"/>
-      <c r="E92" s="104"/>
+      <c r="D92" s="90"/>
+      <c r="E92" s="91"/>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B93" s="1">
@@ -5434,20 +5465,20 @@
       <c r="D93" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E93" s="49" t="s">
+      <c r="E93" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F93" s="59"/>
-      <c r="G93" s="42"/>
-      <c r="H93" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="I93" s="46"/>
-      <c r="J93" s="46"/>
-      <c r="L93" s="66" t="s">
+      <c r="F93" s="57"/>
+      <c r="G93" s="41"/>
+      <c r="H93" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="I93" s="44"/>
+      <c r="J93" s="44"/>
+      <c r="L93" s="64" t="s">
         <v>335</v>
       </c>
-      <c r="M93" s="66" t="s">
+      <c r="M93" s="64" t="s">
         <v>328</v>
       </c>
     </row>
@@ -5461,20 +5492,20 @@
       <c r="D94" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E94" s="49" t="s">
+      <c r="E94" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F94" s="59"/>
-      <c r="G94" s="42"/>
-      <c r="H94" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="I94" s="46"/>
-      <c r="J94" s="46"/>
-      <c r="L94" s="66" t="s">
+      <c r="F94" s="57"/>
+      <c r="G94" s="41"/>
+      <c r="H94" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="I94" s="44"/>
+      <c r="J94" s="44"/>
+      <c r="L94" s="64" t="s">
         <v>334</v>
       </c>
-      <c r="M94" s="66" t="s">
+      <c r="M94" s="64" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5488,20 +5519,20 @@
       <c r="D95" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E95" s="49" t="s">
+      <c r="E95" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F95" s="59"/>
-      <c r="G95" s="42"/>
-      <c r="H95" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="I95" s="46"/>
-      <c r="J95" s="46"/>
-      <c r="L95" s="66" t="s">
+      <c r="F95" s="57"/>
+      <c r="G95" s="41"/>
+      <c r="H95" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="I95" s="44"/>
+      <c r="J95" s="44"/>
+      <c r="L95" s="64" t="s">
         <v>333</v>
       </c>
-      <c r="M95" s="66" t="s">
+      <c r="M95" s="64" t="s">
         <v>327</v>
       </c>
     </row>
@@ -5515,20 +5546,20 @@
       <c r="D96" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E96" s="49" t="s">
+      <c r="E96" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F96" s="59"/>
-      <c r="G96" s="42"/>
-      <c r="H96" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="I96" s="46"/>
-      <c r="J96" s="46"/>
-      <c r="L96" s="66" t="s">
+      <c r="F96" s="57"/>
+      <c r="G96" s="41"/>
+      <c r="H96" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="I96" s="44"/>
+      <c r="J96" s="44"/>
+      <c r="L96" s="64" t="s">
         <v>332</v>
       </c>
-      <c r="M96" s="66" t="s">
+      <c r="M96" s="64" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5542,20 +5573,20 @@
       <c r="D97" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E97" s="49" t="s">
+      <c r="E97" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F97" s="59"/>
-      <c r="G97" s="42"/>
-      <c r="H97" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="I97" s="46"/>
-      <c r="J97" s="46"/>
-      <c r="L97" s="66" t="s">
+      <c r="F97" s="57"/>
+      <c r="G97" s="41"/>
+      <c r="H97" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="I97" s="44"/>
+      <c r="J97" s="44"/>
+      <c r="L97" s="64" t="s">
         <v>331</v>
       </c>
-      <c r="M97" s="66" t="s">
+      <c r="M97" s="64" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5569,20 +5600,20 @@
       <c r="D98" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E98" s="49" t="s">
+      <c r="E98" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F98" s="59"/>
-      <c r="G98" s="42"/>
-      <c r="H98" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="I98" s="46"/>
-      <c r="J98" s="46"/>
-      <c r="L98" s="66" t="s">
+      <c r="F98" s="57"/>
+      <c r="G98" s="41"/>
+      <c r="H98" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="I98" s="44"/>
+      <c r="J98" s="44"/>
+      <c r="L98" s="64" t="s">
         <v>330</v>
       </c>
-      <c r="M98" s="66" t="s">
+      <c r="M98" s="64" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5596,20 +5627,20 @@
       <c r="D99" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E99" s="49" t="s">
+      <c r="E99" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F99" s="59"/>
-      <c r="G99" s="42"/>
-      <c r="H99" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="I99" s="46"/>
-      <c r="J99" s="46"/>
-      <c r="L99" s="66" t="s">
+      <c r="F99" s="57"/>
+      <c r="G99" s="41"/>
+      <c r="H99" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="I99" s="44"/>
+      <c r="J99" s="44"/>
+      <c r="L99" s="64" t="s">
         <v>329</v>
       </c>
-      <c r="M99" s="66" t="s">
+      <c r="M99" s="64" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5623,20 +5654,20 @@
       <c r="D100" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E100" s="49" t="s">
+      <c r="E100" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F100" s="59"/>
-      <c r="G100" s="42"/>
-      <c r="H100" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="I100" s="46"/>
-      <c r="J100" s="46"/>
-      <c r="L100" s="68" t="s">
+      <c r="F100" s="57"/>
+      <c r="G100" s="41"/>
+      <c r="H100" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="I100" s="44"/>
+      <c r="J100" s="44"/>
+      <c r="L100" s="66" t="s">
         <v>283</v>
       </c>
-      <c r="M100" s="68" t="s">
+      <c r="M100" s="66" t="s">
         <v>284</v>
       </c>
     </row>
@@ -5650,20 +5681,20 @@
       <c r="D101" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E101" s="49" t="s">
+      <c r="E101" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F101" s="59"/>
-      <c r="G101" s="42"/>
-      <c r="H101" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="I101" s="46"/>
-      <c r="J101" s="46"/>
-      <c r="L101" s="66" t="s">
+      <c r="F101" s="57"/>
+      <c r="G101" s="41"/>
+      <c r="H101" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="I101" s="44"/>
+      <c r="J101" s="44"/>
+      <c r="L101" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="M101" s="66" t="s">
+      <c r="M101" s="64" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5675,26 +5706,26 @@
         <v>9</v>
       </c>
       <c r="D102" s="21"/>
-      <c r="E102" s="49"/>
-      <c r="F102" s="59"/>
-      <c r="G102" s="42"/>
-      <c r="H102" s="42"/>
-      <c r="I102" s="46"/>
-      <c r="J102" s="46"/>
-      <c r="L102" s="66"/>
-      <c r="M102" s="66"/>
+      <c r="E102" s="47"/>
+      <c r="F102" s="57"/>
+      <c r="G102" s="41"/>
+      <c r="H102" s="41"/>
+      <c r="I102" s="44"/>
+      <c r="J102" s="44"/>
+      <c r="L102" s="64"/>
+      <c r="M102" s="64"/>
     </row>
     <row r="103" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L103" s="66"/>
-      <c r="M103" s="66"/>
+      <c r="L103" s="64"/>
+      <c r="M103" s="64"/>
     </row>
     <row r="104" spans="2:13" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B104" s="23"/>
-      <c r="C104" s="100" t="s">
+      <c r="C104" s="87" t="s">
         <v>184</v>
       </c>
-      <c r="D104" s="100"/>
-      <c r="E104" s="101"/>
+      <c r="D104" s="87"/>
+      <c r="E104" s="88"/>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B105" s="4">
@@ -5706,20 +5737,20 @@
       <c r="D105" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E105" s="37" t="s">
+      <c r="E105" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="F105" s="59"/>
-      <c r="G105" s="42"/>
-      <c r="H105" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="I105" s="46"/>
-      <c r="J105" s="46"/>
-      <c r="L105" s="66" t="s">
+      <c r="F105" s="57"/>
+      <c r="G105" s="41"/>
+      <c r="H105" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="I105" s="44"/>
+      <c r="J105" s="44"/>
+      <c r="L105" s="64" t="s">
         <v>286</v>
       </c>
-      <c r="M105" s="66"/>
+      <c r="M105" s="64"/>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B106" s="4">
@@ -5731,20 +5762,20 @@
       <c r="D106" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E106" s="37" t="s">
+      <c r="E106" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="F106" s="59"/>
-      <c r="G106" s="42"/>
-      <c r="H106" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="I106" s="46"/>
-      <c r="J106" s="46"/>
-      <c r="L106" s="66" t="s">
+      <c r="F106" s="57"/>
+      <c r="G106" s="41"/>
+      <c r="H106" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="I106" s="44"/>
+      <c r="J106" s="44"/>
+      <c r="L106" s="64" t="s">
         <v>287</v>
       </c>
-      <c r="M106" s="66"/>
+      <c r="M106" s="64"/>
     </row>
     <row r="107" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B107" s="4">
@@ -5756,20 +5787,20 @@
       <c r="D107" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="E107" s="37" t="s">
+      <c r="E107" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="F107" s="59"/>
-      <c r="G107" s="42"/>
-      <c r="H107" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="I107" s="46"/>
-      <c r="J107" s="46"/>
-      <c r="L107" s="66" t="s">
+      <c r="F107" s="57"/>
+      <c r="G107" s="41"/>
+      <c r="H107" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="I107" s="44"/>
+      <c r="J107" s="44"/>
+      <c r="L107" s="64" t="s">
         <v>290</v>
       </c>
-      <c r="M107" s="66"/>
+      <c r="M107" s="64"/>
     </row>
     <row r="108" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B108" s="4">
@@ -5781,20 +5812,20 @@
       <c r="D108" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E108" s="37" t="s">
+      <c r="E108" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="F108" s="59"/>
-      <c r="G108" s="42"/>
-      <c r="H108" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="I108" s="46"/>
-      <c r="J108" s="46"/>
-      <c r="L108" s="66" t="s">
+      <c r="F108" s="57"/>
+      <c r="G108" s="41"/>
+      <c r="H108" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="I108" s="44"/>
+      <c r="J108" s="44"/>
+      <c r="L108" s="64" t="s">
         <v>285</v>
       </c>
-      <c r="M108" s="66"/>
+      <c r="M108" s="64"/>
     </row>
     <row r="109" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B109" s="4">
@@ -5806,20 +5837,20 @@
       <c r="D109" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E109" s="37" t="s">
+      <c r="E109" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="F109" s="59"/>
-      <c r="G109" s="42"/>
-      <c r="H109" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="I109" s="46"/>
-      <c r="J109" s="46"/>
-      <c r="L109" s="66" t="s">
+      <c r="F109" s="57"/>
+      <c r="G109" s="41"/>
+      <c r="H109" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="I109" s="44"/>
+      <c r="J109" s="44"/>
+      <c r="L109" s="64" t="s">
         <v>288</v>
       </c>
-      <c r="M109" s="66"/>
+      <c r="M109" s="64"/>
     </row>
     <row r="110" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B110" s="4">
@@ -5831,20 +5862,20 @@
       <c r="D110" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E110" s="37" t="s">
+      <c r="E110" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="F110" s="59"/>
-      <c r="G110" s="42"/>
-      <c r="H110" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="I110" s="46"/>
-      <c r="J110" s="46"/>
-      <c r="L110" s="66" t="s">
+      <c r="F110" s="57"/>
+      <c r="G110" s="41"/>
+      <c r="H110" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="I110" s="44"/>
+      <c r="J110" s="44"/>
+      <c r="L110" s="64" t="s">
         <v>289</v>
       </c>
-      <c r="M110" s="66"/>
+      <c r="M110" s="64"/>
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B111" s="4">
@@ -5856,20 +5887,20 @@
       <c r="D111" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E111" s="37" t="s">
+      <c r="E111" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="F111" s="59"/>
-      <c r="G111" s="42"/>
-      <c r="H111" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="I111" s="46"/>
-      <c r="J111" s="46"/>
-      <c r="L111" s="66" t="s">
+      <c r="F111" s="57"/>
+      <c r="G111" s="41"/>
+      <c r="H111" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="I111" s="44"/>
+      <c r="J111" s="44"/>
+      <c r="L111" s="64" t="s">
         <v>329</v>
       </c>
-      <c r="M111" s="66"/>
+      <c r="M111" s="64"/>
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B112" s="4">
@@ -5881,20 +5912,20 @@
       <c r="D112" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E112" s="37" t="s">
+      <c r="E112" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="F112" s="59"/>
-      <c r="G112" s="42"/>
-      <c r="H112" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="I112" s="46"/>
-      <c r="J112" s="46"/>
-      <c r="L112" s="68" t="s">
+      <c r="F112" s="57"/>
+      <c r="G112" s="41"/>
+      <c r="H112" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="I112" s="44"/>
+      <c r="J112" s="44"/>
+      <c r="L112" s="66" t="s">
         <v>283</v>
       </c>
-      <c r="M112" s="68" t="s">
+      <c r="M112" s="66" t="s">
         <v>284</v>
       </c>
     </row>
@@ -5905,32 +5936,27 @@
       <c r="C113" s="5">
         <v>8</v>
       </c>
-      <c r="D113" s="34" t="s">
+      <c r="D113" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="E113" s="39" t="s">
+      <c r="E113" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="F113" s="59"/>
-      <c r="G113" s="42"/>
-      <c r="H113" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="I113" s="46"/>
-      <c r="J113" s="46"/>
-      <c r="L113" s="66" t="s">
+      <c r="F113" s="57"/>
+      <c r="G113" s="41"/>
+      <c r="H113" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="I113" s="44"/>
+      <c r="J113" s="44"/>
+      <c r="L113" s="64" t="s">
         <v>336</v>
       </c>
-      <c r="M113" s="66"/>
+      <c r="M113" s="64"/>
     </row>
     <row r="114" spans="2:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="B24:B39"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B41:B56"/>
     <mergeCell ref="B58:B73"/>
@@ -5939,6 +5965,11 @@
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="B24:B39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5956,406 +5987,406 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.75" style="75" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="75" customWidth="1"/>
-    <col min="3" max="3" width="31.625" style="75" customWidth="1"/>
-    <col min="4" max="4" width="37" style="75" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="75" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="75"/>
+    <col min="1" max="1" width="1.75" style="73" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="73" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="73" customWidth="1"/>
+    <col min="4" max="4" width="37" style="73" customWidth="1"/>
+    <col min="5" max="5" width="11.375" style="73" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="73"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="72" t="s">
         <v>358</v>
       </c>
-      <c r="E1" s="76"/>
-      <c r="F1" s="65"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="75" t="s">
         <v>359</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="65"/>
-    </row>
-    <row r="3" spans="2:6" s="67" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="77"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="65"/>
-    </row>
-    <row r="4" spans="2:6" s="67" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="79" t="s">
+      <c r="E2" s="74"/>
+      <c r="F2" s="63"/>
+    </row>
+    <row r="3" spans="2:6" s="65" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="75"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="63"/>
+    </row>
+    <row r="4" spans="2:6" s="65" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="77" t="s">
         <v>360</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="77" t="s">
         <v>361</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="77" t="s">
         <v>362</v>
       </c>
-      <c r="E4" s="79" t="s">
+      <c r="E4" s="77" t="s">
         <v>363</v>
       </c>
-      <c r="F4" s="65"/>
+      <c r="F4" s="63"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="78" t="s">
         <v>364</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="79" t="s">
         <v>365</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="64" t="s">
         <v>366</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="46" t="s">
         <v>367</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="65" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="78" t="s">
         <v>369</v>
       </c>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="79" t="s">
         <v>370</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="64" t="s">
         <v>371</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="46" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="78" t="s">
         <v>372</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="79" t="s">
         <v>373</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="46" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="78" t="s">
         <v>375</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="79" t="s">
         <v>376</v>
       </c>
-      <c r="D8" s="66"/>
-      <c r="E8" s="48" t="s">
+      <c r="D8" s="64"/>
+      <c r="E8" s="46" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="78" t="s">
         <v>377</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="66"/>
-      <c r="E9" s="48" t="s">
+      <c r="D9" s="64"/>
+      <c r="E9" s="46" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="78" t="s">
         <v>378</v>
       </c>
-      <c r="C10" s="81" t="s">
+      <c r="C10" s="79" t="s">
         <v>379</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="64" t="s">
         <v>366</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="46" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="78" t="s">
         <v>380</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="79" t="s">
         <v>381</v>
       </c>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="64" t="s">
         <v>366</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="46" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="78" t="s">
         <v>382</v>
       </c>
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="79" t="s">
         <v>303</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="64" t="s">
         <v>366</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="46" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="78" t="s">
         <v>383</v>
       </c>
-      <c r="C13" s="81" t="s">
+      <c r="C13" s="79" t="s">
         <v>346</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="64" t="s">
         <v>384</v>
       </c>
-      <c r="E13" s="48" t="s">
+      <c r="E13" s="46" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="78" t="s">
         <v>385</v>
       </c>
-      <c r="C14" s="81" t="s">
+      <c r="C14" s="79" t="s">
         <v>386</v>
       </c>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="64" t="s">
         <v>366</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="46" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="78" t="s">
         <v>387</v>
       </c>
-      <c r="C15" s="81" t="s">
+      <c r="C15" s="79" t="s">
         <v>337</v>
       </c>
-      <c r="D15" s="66" t="s">
+      <c r="D15" s="64" t="s">
         <v>388</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="E15" s="46" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="78" t="s">
         <v>389</v>
       </c>
-      <c r="C16" s="81" t="s">
+      <c r="C16" s="79" t="s">
         <v>390</v>
       </c>
-      <c r="D16" s="66" t="s">
+      <c r="D16" s="64" t="s">
         <v>388</v>
       </c>
-      <c r="E16" s="48" t="s">
+      <c r="E16" s="46" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="78" t="s">
         <v>391</v>
       </c>
-      <c r="C17" s="81" t="s">
+      <c r="C17" s="79" t="s">
         <v>392</v>
       </c>
-      <c r="D17" s="66" t="s">
+      <c r="D17" s="64" t="s">
         <v>393</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="46" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="80" t="s">
+      <c r="B18" s="78" t="s">
         <v>394</v>
       </c>
-      <c r="C18" s="81" t="s">
+      <c r="C18" s="79" t="s">
         <v>395</v>
       </c>
-      <c r="D18" s="66" t="s">
+      <c r="D18" s="64" t="s">
         <v>396</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="46" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="80" t="s">
+      <c r="B19" s="78" t="s">
         <v>397</v>
       </c>
-      <c r="C19" s="81" t="s">
+      <c r="C19" s="79" t="s">
         <v>398</v>
       </c>
-      <c r="D19" s="66" t="s">
+      <c r="D19" s="64" t="s">
         <v>396</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="46" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="78" t="s">
         <v>399</v>
       </c>
-      <c r="C20" s="81" t="s">
+      <c r="C20" s="79" t="s">
         <v>400</v>
       </c>
-      <c r="D20" s="66" t="s">
+      <c r="D20" s="64" t="s">
         <v>396</v>
       </c>
-      <c r="E20" s="48" t="s">
+      <c r="E20" s="46" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="80" t="s">
+      <c r="B21" s="78" t="s">
         <v>401</v>
       </c>
-      <c r="C21" s="81" t="s">
+      <c r="C21" s="79" t="s">
         <v>402</v>
       </c>
-      <c r="D21" s="66"/>
-      <c r="E21" s="48" t="s">
+      <c r="D21" s="64"/>
+      <c r="E21" s="46" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="80" t="s">
+      <c r="B22" s="78" t="s">
         <v>403</v>
       </c>
-      <c r="C22" s="81" t="s">
+      <c r="C22" s="79" t="s">
         <v>233</v>
       </c>
-      <c r="D22" s="66" t="s">
+      <c r="D22" s="64" t="s">
         <v>366</v>
       </c>
-      <c r="E22" s="48" t="s">
+      <c r="E22" s="46" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="80" t="s">
+      <c r="B23" s="78" t="s">
         <v>404</v>
       </c>
-      <c r="C23" s="81" t="s">
+      <c r="C23" s="79" t="s">
         <v>405</v>
       </c>
-      <c r="D23" s="66" t="s">
+      <c r="D23" s="64" t="s">
         <v>371</v>
       </c>
-      <c r="E23" s="48" t="s">
+      <c r="E23" s="46" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="80" t="s">
+      <c r="B24" s="78" t="s">
         <v>406</v>
       </c>
-      <c r="C24" s="81" t="s">
+      <c r="C24" s="79" t="s">
         <v>342</v>
       </c>
-      <c r="D24" s="66" t="s">
+      <c r="D24" s="64" t="s">
         <v>396</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="46" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="80" t="s">
+      <c r="B25" s="78" t="s">
         <v>235</v>
       </c>
-      <c r="C25" s="81" t="s">
+      <c r="C25" s="79" t="s">
         <v>407</v>
       </c>
-      <c r="D25" s="66" t="s">
+      <c r="D25" s="64" t="s">
         <v>366</v>
       </c>
-      <c r="E25" s="48" t="s">
+      <c r="E25" s="46" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="80" t="s">
+      <c r="B26" s="78" t="s">
         <v>236</v>
       </c>
-      <c r="C26" s="81" t="s">
+      <c r="C26" s="79" t="s">
         <v>408</v>
       </c>
-      <c r="D26" s="66" t="s">
+      <c r="D26" s="64" t="s">
         <v>396</v>
       </c>
-      <c r="E26" s="48" t="s">
+      <c r="E26" s="46" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="78" t="s">
         <v>409</v>
       </c>
-      <c r="C27" s="81" t="s">
+      <c r="C27" s="79" t="s">
         <v>410</v>
       </c>
-      <c r="D27" s="66" t="s">
+      <c r="D27" s="64" t="s">
         <v>388</v>
       </c>
-      <c r="E27" s="48" t="s">
+      <c r="E27" s="46" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="80" t="s">
+      <c r="B28" s="78" t="s">
         <v>411</v>
       </c>
-      <c r="C28" s="81" t="s">
+      <c r="C28" s="79" t="s">
         <v>412</v>
       </c>
-      <c r="D28" s="66" t="s">
+      <c r="D28" s="64" t="s">
         <v>413</v>
       </c>
-      <c r="E28" s="48" t="s">
+      <c r="E28" s="46" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="78" t="s">
         <v>414</v>
       </c>
-      <c r="C29" s="81" t="s">
+      <c r="C29" s="79" t="s">
         <v>415</v>
       </c>
-      <c r="D29" s="66" t="s">
+      <c r="D29" s="64" t="s">
         <v>388</v>
       </c>
-      <c r="E29" s="48" t="s">
+      <c r="E29" s="46" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="80" t="s">
+      <c r="B30" s="78" t="s">
         <v>231</v>
       </c>
-      <c r="C30" s="81" t="s">
+      <c r="C30" s="79" t="s">
         <v>416</v>
       </c>
-      <c r="D30" s="66" t="s">
+      <c r="D30" s="64" t="s">
         <v>371</v>
       </c>
-      <c r="E30" s="48" t="s">
+      <c r="E30" s="46" t="s">
         <v>367</v>
       </c>
     </row>
@@ -6376,612 +6407,612 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.5" style="82" customWidth="1"/>
-    <col min="3" max="3" width="31" style="82" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="80" customWidth="1"/>
+    <col min="3" max="3" width="31" style="80" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="75" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="81" t="s">
         <v>563</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="81" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="81" t="s">
         <v>428</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="81" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="81" t="s">
         <v>430</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="81" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="81" t="s">
         <v>432</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="81" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="81" t="s">
         <v>434</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="81" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="81" t="s">
         <v>436</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="81" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="81" t="s">
         <v>438</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="81" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="81" t="s">
         <v>440</v>
       </c>
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="81" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="81" t="s">
         <v>442</v>
       </c>
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="81" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="81" t="s">
         <v>444</v>
       </c>
-      <c r="C12" s="83" t="s">
+      <c r="C12" s="81" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="81" t="s">
         <v>446</v>
       </c>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="81" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="81" t="s">
         <v>448</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="81" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="81" t="s">
         <v>450</v>
       </c>
-      <c r="C15" s="83" t="s">
+      <c r="C15" s="81" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="81" t="s">
         <v>452</v>
       </c>
-      <c r="C16" s="83" t="s">
+      <c r="C16" s="81" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="81" t="s">
         <v>454</v>
       </c>
-      <c r="C17" s="83" t="s">
+      <c r="C17" s="81" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="81" t="s">
         <v>456</v>
       </c>
-      <c r="C18" s="83" t="s">
+      <c r="C18" s="81" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="81" t="s">
         <v>458</v>
       </c>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="81" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="81" t="s">
         <v>460</v>
       </c>
-      <c r="C20" s="83" t="s">
+      <c r="C20" s="81" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="81" t="s">
         <v>462</v>
       </c>
-      <c r="C21" s="83" t="s">
+      <c r="C21" s="81" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="83" t="s">
+      <c r="B22" s="81" t="s">
         <v>464</v>
       </c>
-      <c r="C22" s="83" t="s">
+      <c r="C22" s="81" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="83" t="s">
+      <c r="B23" s="81" t="s">
         <v>466</v>
       </c>
-      <c r="C23" s="83" t="s">
+      <c r="C23" s="81" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="83" t="s">
+      <c r="B24" s="81" t="s">
         <v>468</v>
       </c>
-      <c r="C24" s="83" t="s">
+      <c r="C24" s="81" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="83" t="s">
+      <c r="B25" s="81" t="s">
         <v>344</v>
       </c>
-      <c r="C25" s="83" t="s">
+      <c r="C25" s="81" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="83" t="s">
+      <c r="B26" s="81" t="s">
         <v>471</v>
       </c>
-      <c r="C26" s="83" t="s">
+      <c r="C26" s="81" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="83" t="s">
+      <c r="B27" s="81" t="s">
         <v>473</v>
       </c>
-      <c r="C27" s="83" t="s">
+      <c r="C27" s="81" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="83" t="s">
+      <c r="B28" s="81" t="s">
         <v>475</v>
       </c>
-      <c r="C28" s="83" t="s">
+      <c r="C28" s="81" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="83" t="s">
+      <c r="B29" s="81" t="s">
         <v>477</v>
       </c>
-      <c r="C29" s="83" t="s">
+      <c r="C29" s="81" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="83" t="s">
+      <c r="B30" s="81" t="s">
         <v>479</v>
       </c>
-      <c r="C30" s="83" t="s">
+      <c r="C30" s="81" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="83" t="s">
+      <c r="B31" s="81" t="s">
         <v>481</v>
       </c>
-      <c r="C31" s="83" t="s">
+      <c r="C31" s="81" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="83" t="s">
+      <c r="B32" s="81" t="s">
         <v>483</v>
       </c>
-      <c r="C32" s="83" t="s">
+      <c r="C32" s="81" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="83" t="s">
+      <c r="B33" s="81" t="s">
         <v>485</v>
       </c>
-      <c r="C33" s="83" t="s">
+      <c r="C33" s="81" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="83" t="s">
+      <c r="B34" s="81" t="s">
         <v>338</v>
       </c>
-      <c r="C34" s="83" t="s">
+      <c r="C34" s="81" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="83" t="s">
+      <c r="B35" s="81" t="s">
         <v>487</v>
       </c>
-      <c r="C35" s="83" t="s">
+      <c r="C35" s="81" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="83" t="s">
+      <c r="B36" s="81" t="s">
         <v>489</v>
       </c>
-      <c r="C36" s="83" t="s">
+      <c r="C36" s="81" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="83" t="s">
+      <c r="B37" s="81" t="s">
         <v>491</v>
       </c>
-      <c r="C37" s="83" t="s">
+      <c r="C37" s="81" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="83" t="s">
+      <c r="B38" s="81" t="s">
         <v>493</v>
       </c>
-      <c r="C38" s="83" t="s">
+      <c r="C38" s="81" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39" s="83" t="s">
+      <c r="B39" s="81" t="s">
         <v>304</v>
       </c>
-      <c r="C39" s="83" t="s">
+      <c r="C39" s="81" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" s="83" t="s">
+      <c r="B40" s="81" t="s">
         <v>496</v>
       </c>
-      <c r="C40" s="83" t="s">
+      <c r="C40" s="81" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B41" s="83" t="s">
+      <c r="B41" s="81" t="s">
         <v>498</v>
       </c>
-      <c r="C41" s="83" t="s">
+      <c r="C41" s="81" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B42" s="83" t="s">
+      <c r="B42" s="81" t="s">
         <v>303</v>
       </c>
-      <c r="C42" s="83" t="s">
+      <c r="C42" s="81" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="83" t="s">
+      <c r="B43" s="81" t="s">
         <v>501</v>
       </c>
-      <c r="C43" s="83" t="s">
+      <c r="C43" s="81" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="83" t="s">
+      <c r="B44" s="81" t="s">
         <v>386</v>
       </c>
-      <c r="C44" s="83" t="s">
+      <c r="C44" s="81" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="83" t="s">
+      <c r="B45" s="81" t="s">
         <v>504</v>
       </c>
-      <c r="C45" s="83" t="s">
+      <c r="C45" s="81" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="83" t="s">
+      <c r="B46" s="81" t="s">
         <v>506</v>
       </c>
-      <c r="C46" s="83" t="s">
+      <c r="C46" s="81" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="83" t="s">
+      <c r="B47" s="81" t="s">
         <v>508</v>
       </c>
-      <c r="C47" s="83" t="s">
+      <c r="C47" s="81" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B48" s="83" t="s">
+      <c r="B48" s="81" t="s">
         <v>510</v>
       </c>
-      <c r="C48" s="83" t="s">
+      <c r="C48" s="81" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B49" s="83" t="s">
+      <c r="B49" s="81" t="s">
         <v>512</v>
       </c>
-      <c r="C49" s="83" t="s">
+      <c r="C49" s="81" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B50" s="83" t="s">
+      <c r="B50" s="81" t="s">
         <v>514</v>
       </c>
-      <c r="C50" s="83" t="s">
+      <c r="C50" s="81" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B51" s="83" t="s">
+      <c r="B51" s="81" t="s">
         <v>516</v>
       </c>
-      <c r="C51" s="83" t="s">
+      <c r="C51" s="81" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B52" s="83" t="s">
+      <c r="B52" s="81" t="s">
         <v>518</v>
       </c>
-      <c r="C52" s="83" t="s">
+      <c r="C52" s="81" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="83" t="s">
+      <c r="B53" s="81" t="s">
         <v>520</v>
       </c>
-      <c r="C53" s="83" t="s">
+      <c r="C53" s="81" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B54" s="83" t="s">
+      <c r="B54" s="81" t="s">
         <v>522</v>
       </c>
-      <c r="C54" s="83" t="s">
+      <c r="C54" s="81" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B55" s="83" t="s">
+      <c r="B55" s="81" t="s">
         <v>524</v>
       </c>
-      <c r="C55" s="83" t="s">
+      <c r="C55" s="81" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B56" s="83" t="s">
+      <c r="B56" s="81" t="s">
         <v>526</v>
       </c>
-      <c r="C56" s="83" t="s">
+      <c r="C56" s="81" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B57" s="83" t="s">
+      <c r="B57" s="81" t="s">
         <v>528</v>
       </c>
-      <c r="C57" s="83" t="s">
+      <c r="C57" s="81" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B58" s="83" t="s">
+      <c r="B58" s="81" t="s">
         <v>530</v>
       </c>
-      <c r="C58" s="83" t="s">
+      <c r="C58" s="81" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B59" s="83" t="s">
+      <c r="B59" s="81" t="s">
         <v>531</v>
       </c>
-      <c r="C59" s="83" t="s">
+      <c r="C59" s="81" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B60" s="83" t="s">
+      <c r="B60" s="81" t="s">
         <v>533</v>
       </c>
-      <c r="C60" s="83" t="s">
+      <c r="C60" s="81" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B61" s="83" t="s">
+      <c r="B61" s="81" t="s">
         <v>535</v>
       </c>
-      <c r="C61" s="83" t="s">
+      <c r="C61" s="81" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B62" s="83" t="s">
+      <c r="B62" s="81" t="s">
         <v>537</v>
       </c>
-      <c r="C62" s="83" t="s">
+      <c r="C62" s="81" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B63" s="83" t="s">
+      <c r="B63" s="81" t="s">
         <v>539</v>
       </c>
-      <c r="C63" s="83" t="s">
+      <c r="C63" s="81" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B64" s="83" t="s">
+      <c r="B64" s="81" t="s">
         <v>541</v>
       </c>
-      <c r="C64" s="83" t="s">
+      <c r="C64" s="81" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B65" s="83" t="s">
+      <c r="B65" s="81" t="s">
         <v>543</v>
       </c>
-      <c r="C65" s="83" t="s">
+      <c r="C65" s="81" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B66" s="83" t="s">
+      <c r="B66" s="81" t="s">
         <v>302</v>
       </c>
-      <c r="C66" s="83" t="s">
+      <c r="C66" s="81" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B67" s="83" t="s">
+      <c r="B67" s="81" t="s">
         <v>354</v>
       </c>
-      <c r="C67" s="83" t="s">
+      <c r="C67" s="81" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B68" s="83" t="s">
+      <c r="B68" s="81" t="s">
         <v>195</v>
       </c>
-      <c r="C68" s="83" t="s">
+      <c r="C68" s="81" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B69" s="83" t="s">
+      <c r="B69" s="81" t="s">
         <v>199</v>
       </c>
-      <c r="C69" s="83" t="s">
+      <c r="C69" s="81" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B70" s="83" t="s">
+      <c r="B70" s="81" t="s">
         <v>298</v>
       </c>
-      <c r="C70" s="83" t="s">
+      <c r="C70" s="81" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B71" s="83" t="s">
+      <c r="B71" s="81" t="s">
         <v>550</v>
       </c>
-      <c r="C71" s="83" t="s">
+      <c r="C71" s="81" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B72" s="83" t="s">
+      <c r="B72" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="C72" s="83" t="s">
+      <c r="C72" s="81" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B73" s="83" t="s">
+      <c r="B73" s="81" t="s">
         <v>202</v>
       </c>
-      <c r="C73" s="83" t="s">
+      <c r="C73" s="81" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B74" s="83" t="s">
+      <c r="B74" s="81" t="s">
         <v>554</v>
       </c>
-      <c r="C74" s="83" t="s">
+      <c r="C74" s="81" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B75" s="83" t="s">
+      <c r="B75" s="81" t="s">
         <v>556</v>
       </c>
-      <c r="C75" s="83" t="s">
+      <c r="C75" s="81" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B76" s="83" t="s">
+      <c r="B76" s="81" t="s">
         <v>558</v>
       </c>
-      <c r="C76" s="83" t="s">
+      <c r="C76" s="81" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B77" s="83" t="s">
+      <c r="B77" s="81" t="s">
         <v>560</v>
       </c>
-      <c r="C77" s="83" t="s">
+      <c r="C77" s="81" t="s">
         <v>561</v>
       </c>
     </row>
